--- a/biology/Botanique/Glottiphyllum/Glottiphyllum.xlsx
+++ b/biology/Botanique/Glottiphyllum/Glottiphyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glottiphyllum est un genre botanique d'environ 57 espèces de plantes succulentes tropicales à fleurs de la famille des Aizoaceae.
 Il est proche des genres Gibbaeum et Faucaria.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes présentent des feuilles épaisses et molles disposées par paire avec un port couché ou rasant sur le sol. Elles présentent des rhizomes.
 Fleurs jaunes à pétales étroits, parfois parfumées, de 5 cm de diamètre environ, apparaissant en automne et en hiver.
@@ -548,7 +562,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Glottiphyllum carnosum NEBr.
 Glottiphyllum cruciatum (Haw.) NEBr.
@@ -601,7 +617,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultiver les plantes dans de petits pots, dans un sol maigre avec du sable et de l'argile. En exposition très ensoleillée.
 Arroser modérément en été et pas du tout en hiver pour que la plante observe une période de repos sans laquelle elle ne fleurira pas.
